--- a/文档/07_日常报告/学员任务完成情况.xlsx
+++ b/文档/07_日常报告/学员任务完成情况.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Work\20190622重大\周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79000\Desktop\实训\文档\07_日常报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D6C6E8-E39F-4387-AF81-CF72BB372608}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="372" windowWidth="18924" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="375" windowWidth="18930" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="Java" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -52,37 +51,50 @@
     <t>组员</t>
   </si>
   <si>
-    <t>完成测试，子系统发布。</t>
-  </si>
-  <si>
-    <t>接口实现，完成接口测试。</t>
-  </si>
-  <si>
-    <t>实现全部接口，并完成测试。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学习nginx,整合项目，进行测试。
+    <t>系统设计完成，项目整体完成40%</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢欢</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王振宇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭卓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘新华</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘网站数据挖掘与分析</t>
+  </si>
+  <si>
+    <t>完成项目立项文档编写、参与需求规格说明书编写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找数据源网站，分析网页结构、参与需求规格说明书编写</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 完成系统整体框架的设计，参与需求规格说明书编写
 </t>
-  </si>
-  <si>
-    <t>系统整合，连接后台前端，系统架构转变和发布。</t>
-  </si>
-  <si>
-    <t>完成项目界面的开发工作和接口的联调工作</t>
-  </si>
-  <si>
-    <t>系统设计完成，项目整体完成90%</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>xxx</t>
+    <t>完成项目需求调研、参与需求规格说明书编写，数据清洗</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,23 +241,10 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -259,7 +258,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -269,30 +268,30 @@
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,32 +321,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +445,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,25 +653,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="55.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="55.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -704,135 +697,111 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7">
         <v>15</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="14">
-        <v>4</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>17</v>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="H2" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>16</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7">
         <v>17</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H4" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>18</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10">
-        <v>95</v>
-      </c>
+    <row r="6" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G7"/>
     </row>
-    <row r="7" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>20</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="C2:C5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
